--- a/File/空调三合一控制器通信协议指令集.xlsx
+++ b/File/空调三合一控制器通信协议指令集.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D111A8B8-9E18-459C-8DEB-E43E7DA92FF1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693001B2-1D93-4214-A041-C82A73E2CACC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="97">
   <si>
     <t>继电器控制</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,9 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>通用开关号</t>
-  </si>
-  <si>
     <t>长度</t>
   </si>
   <si>
@@ -331,6 +328,74 @@
   </si>
   <si>
     <t>开关状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红外控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电能读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回路号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单路读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单路读取回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用开关回复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -405,9 +470,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -416,6 +478,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V37"/>
+  <dimension ref="A2:Y54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -713,24 +781,24 @@
     <col min="11" max="11" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -874,10 +942,10 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -1047,11 +1115,24 @@
         <v>54</v>
       </c>
     </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
     <row r="13" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="6"/>
+      <c r="A13" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="10"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1066,15 +1147,15 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>56</v>
+      <c r="C14" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>4</v>
@@ -1082,29 +1163,29 @@
       <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="I14" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="M14" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>12</v>
@@ -1122,49 +1203,49 @@
     </row>
     <row r="15" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="K15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="L15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N15" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -1176,49 +1257,49 @@
     </row>
     <row r="16" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="K16" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="M16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N16" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -1228,159 +1309,111 @@
       <c r="U16"/>
       <c r="V16"/>
     </row>
-    <row r="17" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="G18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="I18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="M18" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="M17" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="N17" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-    </row>
-    <row r="18" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-    </row>
-    <row r="19" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19" s="4" t="s">
+      <c r="K19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="N19" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
@@ -1390,178 +1423,506 @@
       <c r="U19"/>
       <c r="V19"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+    <row r="20" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+    </row>
+    <row r="28" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="R28" s="1">
+        <v>83</v>
+      </c>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>40</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B43" t="s">
         <v>41</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C43" t="s">
         <v>19</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D43" t="s">
         <v>19</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>40</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B44" t="s">
         <v>41</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C44" t="s">
         <v>19</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D44" t="s">
         <v>43</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="B49" s="9"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>40</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B51" t="s">
         <v>41</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C51" t="s">
         <v>43</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D51" t="s">
         <v>19</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E51" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>40</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B52" t="s">
         <v>41</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C52" t="s">
         <v>43</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D52" t="s">
         <v>43</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E52" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B53" s="9"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A1:I1"/>
+  <mergeCells count="15">
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A12:I12"/>
     <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/File/空调三合一控制器通信协议指令集.xlsx
+++ b/File/空调三合一控制器通信协议指令集.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF105236-79E0-4387-9AD5-B96807CC50A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27882F81-69ED-47E4-B433-2F0728A57211}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="131">
   <si>
     <t>继电器控制</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,22 +283,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回路号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -367,18 +355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -387,18 +363,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模块地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>07</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -528,6 +496,42 @@
   </si>
   <si>
     <t>33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,15 +595,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -620,17 +618,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -914,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Y63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -929,81 +927,81 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="A2" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="9"/>
     </row>
     <row r="5" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1102,64 +1100,64 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="P9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="Q9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1276,193 +1274,193 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="O15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
-    <row r="16" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="O16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
       <c r="R16"/>
       <c r="S16"/>
       <c r="T16"/>
       <c r="U16"/>
       <c r="V16"/>
     </row>
-    <row r="17" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="N17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="O17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
       <c r="R17"/>
       <c r="S17"/>
       <c r="T17"/>
@@ -1470,167 +1468,167 @@
       <c r="V17"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A18" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="N19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
-    <row r="20" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="N20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="O20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
       <c r="R20"/>
       <c r="S20"/>
       <c r="T20"/>
       <c r="U20"/>
       <c r="V20"/>
     </row>
-    <row r="21" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="N21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="O21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
       <c r="R21"/>
       <c r="S21"/>
       <c r="T21"/>
@@ -1638,139 +1636,139 @@
       <c r="V21"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-    </row>
-    <row r="25" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="L25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M25" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="N25" s="3" t="s">
+      <c r="N25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="O25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
     </row>
-    <row r="26" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M26" s="4" t="s">
+      <c r="L26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N26" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
+      <c r="N26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
       <c r="R26"/>
       <c r="S26"/>
       <c r="T26"/>
@@ -1778,125 +1776,125 @@
       <c r="V26"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="10"/>
-    </row>
-    <row r="28" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="A27" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="L28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M28" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q28" s="3" t="s">
+      <c r="N28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="R28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="C29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M29" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P29" s="4" t="s">
+      <c r="M29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Q29" s="4" t="s">
-        <v>73</v>
+      <c r="N29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="R29" s="1">
         <v>83</v>
@@ -1906,24 +1904,24 @@
       <c r="U29"/>
       <c r="V29"/>
     </row>
-    <row r="30" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
+    <row r="30" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
       <c r="R30" s="1"/>
       <c r="S30"/>
       <c r="T30"/>
@@ -1931,710 +1929,797 @@
       <c r="V30"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="9"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M52" s="8"/>
+    </row>
+    <row r="53" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L54" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="9"/>
+    </row>
+    <row r="59" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E59" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
+      <c r="F59" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G59" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="11"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="11"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="12" t="s">
+      <c r="H59" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="9"/>
+    </row>
+    <row r="62" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="11"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="J42" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="11"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="L44" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="N44" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="J46" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="K46" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B47" s="11"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="J50" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B51" s="11"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="K52" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="L52" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="M52" s="12"/>
-    </row>
-    <row r="53" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H53" s="12" t="s">
+      <c r="B62" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="I53" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="J53" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="K53" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="J54" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="K54" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
+      <c r="C62" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B58" s="11"/>
-    </row>
-    <row r="59" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E59" s="12" t="s">
+      <c r="C63" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F59" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G59" s="12" t="s">
+      <c r="D63" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H63" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H59" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D60" s="12" t="s">
+      <c r="I63" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B61" s="11"/>
-    </row>
-    <row r="62" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="I62" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="I63" s="12" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A31:I31"/>
@@ -2651,12 +2736,6 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A32:I32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
